--- a/aps3_entrada.xlsx
+++ b/aps3_entrada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sophi\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sophi\Documentos\GitHub\APS3_MECSOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C31F5-27E8-42E8-B8F5-FD89909E07FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93AA9F-BD86-407C-9FFE-BD25D31B71EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="795" windowWidth="36000" windowHeight="14235" xr2:uid="{9C7959DA-F01D-4680-8406-710C3B0C5791}"/>
+    <workbookView xWindow="4065" yWindow="1095" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{9C7959DA-F01D-4680-8406-710C3B0C5791}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,7 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F79382-DCC1-419D-9ED2-6A6E5987A679}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +567,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="26">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
@@ -576,7 +579,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="26">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
@@ -586,7 +589,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="26">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
@@ -596,7 +599,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>0</v>
       </c>
     </row>
@@ -604,7 +607,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <v>0</v>
       </c>
     </row>
@@ -612,7 +615,7 @@
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="27">
         <v>1</v>
       </c>
     </row>
@@ -620,7 +623,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
     </row>
@@ -628,7 +631,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="27">
         <v>1</v>
       </c>
     </row>
@@ -947,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B849D-F37D-4C38-9939-92204D5FCA75}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +987,7 @@
       <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -992,9 +995,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,5 +1026,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aps3_entrada.xlsx
+++ b/aps3_entrada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sophi\Documentos\GitHub\APS3_MECSOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eiki\Documents\Insper\APS3_MECSOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93AA9F-BD86-407C-9FFE-BD25D31B71EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8847A453-DEBC-4E88-A912-09ED42F54E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1095" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{9C7959DA-F01D-4680-8406-710C3B0C5791}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{9C7959DA-F01D-4680-8406-710C3B0C5791}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -950,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B849D-F37D-4C38-9939-92204D5FCA75}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
